--- a/Tests/Iteration_number_test-dataset2.xlsx
+++ b/Tests/Iteration_number_test-dataset2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Prace domowe\Studia IV rok\AGH\Inżynierka\Project\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D6F17-6512-4C66-BF79-5483DA72B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944CED0-1DCE-4204-B0CE-8AF9AB3A5E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31470" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
     <col min="5" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>35000</v>
       </c>
@@ -488,8 +488,11 @@
       <c r="G2">
         <v>6.9694895744323704</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20000</v>
       </c>
@@ -511,8 +514,11 @@
       <c r="G3">
         <v>4.1203930377960196</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10000</v>
       </c>
@@ -535,7 +541,7 @@
         <v>2.0711488723754798</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7500</v>
       </c>
@@ -558,7 +564,7 @@
         <v>1.45708203315734</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5000</v>
       </c>
@@ -581,7 +587,7 @@
         <v>0.97032690048217696</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3500</v>
       </c>
@@ -604,7 +610,7 @@
         <v>0.68136262893676702</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -627,7 +633,7 @@
         <v>0.386482954025268</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1000</v>
       </c>
@@ -650,7 +656,7 @@
         <v>0.195360422134399</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>500</v>
       </c>
@@ -671,16 +677,6 @@
       </c>
       <c r="G10">
         <v>0.101629734039306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Iteration_number_test-dataset2.xlsx
+++ b/Tests/Iteration_number_test-dataset2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Prace domowe\Studia IV rok\AGH\Inżynierka\Project\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944CED0-1DCE-4204-B0CE-8AF9AB3A5E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F25427-2CBD-4D6A-A981-F90647182E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31470" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Maximum value</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Mutation Probability: 0.3</t>
+  </si>
+  <si>
+    <t>Other parameter values:</t>
   </si>
 </sst>
 </file>
@@ -432,15 +435,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="4" width="17" customWidth="1"/>
     <col min="5" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -465,6 +467,9 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
